--- a/src/assets/speakers/data.xlsx
+++ b/src/assets/speakers/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
   <si>
     <t>Session Id</t>
   </si>
@@ -95,75 +95,19 @@
     <t>Company Website</t>
   </si>
   <si>
+    <t>Instagram</t>
+  </si>
+  <si>
     <t>X (Twitter)</t>
   </si>
   <si>
     <t>Blog</t>
   </si>
   <si>
-    <t>Instagram</t>
-  </si>
-  <si>
     <t>Facebook</t>
   </si>
   <si>
     <t>Profile Picture</t>
-  </si>
-  <si>
-    <t>What happens to your privacy when data are moved on cloud?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nowadays we heard often people that talk about privacy. Services, platform and so on explicitly specify what they can do with your data but what if you want not to allow them to read it?_x000D_
-_x000D_
-This talk will give a different overview about privacy by considering the case where we want to store data on an external server (such as Amazon, Azure, etc,) but allowing it to learn nothing about the data itself. We will also see pro and cons of the solutions that can be used to achieve this kind of privacy.</t>
-  </si>
-  <si>
-    <t>Mariagiovanna Rotundo</t>
-  </si>
-  <si>
-    <t>mariagiovannarotundo@gmail.com</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Short (20min)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Introductory</t>
-  </si>
-  <si>
-    <t>English, Italian</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>f8ffd44d-f336-4c8c-baf7-b3ec73cfff60</t>
-  </si>
-  <si>
-    <t>Mariagiovanna</t>
-  </si>
-  <si>
-    <t>Rotundo</t>
-  </si>
-  <si>
-    <t>Ph.D. student @ University of Pisa | Lead @ GDG and WTM Pisa | WTM Ambassador</t>
-  </si>
-  <si>
-    <t>Hi! I'm a Ph.D. student at the computer science department of the University of Pisa.</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com/in/mariagiovanna-rotundo</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/84da-400o400o1-9jdSCP3HYz2Lhjebns4pXr.jpg</t>
   </si>
   <si>
     <t>Breaking Free from the Need for Male Approval in Professional Growth</t>
@@ -193,7 +137,16 @@
     <t>Full (40min)</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Introductory</t>
+  </si>
+  <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>united kingdom</t>
@@ -252,6 +205,9 @@
     <t>Yes, and I will be applying with Google's speaker program</t>
   </si>
   <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>seconda aula talk</t>
   </si>
   <si>
@@ -280,30 +236,32 @@
     <t>https://devmy.it</t>
   </si>
   <si>
+    <t>https://www.instagram.com/Devmy.it/</t>
+  </si>
+  <si>
     <t>https://devmy.it/blog</t>
   </si>
   <si>
-    <t>https://www.instagram.com/Devmy.it/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/francesco.sciuti/</t>
   </si>
   <si>
     <t>https://sessionize.com/image/ac8e-400o400o1-UfR4WhvDcNWR3nitSJKzR4.jpg</t>
   </si>
   <si>
-    <t>How I will explain Kubernetes to my daughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once upon a time there was Bino, a little elephant who sold feathers. And Bino wanted to explore the world, and he ventured out to sea together with Ual, a whale who taught him to stay on a raft. But Bino wanted to meet many other animals, and learn about the world, and be able to be quick and efficient to sell as many feathers as possible, until he encountered a large ship full of promises and magic._x000D_
-_x000D_
-Kubernetes is a complex system and not at all obvious. It is almost impossible to explain its internal functioning to non-experts, but fairy tales allow us to use our imagination to transform usually complex concepts into something magical. In this talk I will tell you about the mechanisms of container orchestration as I intend to do it with my daughter in a few years, exploiting the magic of fairy tales.</t>
+    <t>Come racconterò Kubernetes a mia figlia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"C'era una volta Bino, un elefantino che vendeva piume. E Bino voleva esplorare il mondo, e si avventurò per mare assieme a Ual, una balena che gli insegnò a stare su una zattera. Ma Bino voleva incontrare tanti altri animali, e conoscere il mondo, e poter essere veloce ed efficiente per vendere quante più piume possibile, fino a quando non incontrò una grande nave piena di promesse e magie._x000D_
+Kubernetes è un sistema complesso e per nulla scontato. Risulta quasi impossibile spiegarne il funzionamento interno ai non addetti ai lavori, ma le favole ci permettono di usare la fantasia per trasformare concetti solitamente complessi in qualcosa di magico. In questo talk vi racconterò meccanismi dell'orchestrazione dei container così come intendo farlo con mia figlia tra qualche anno, sfruttando la magia delle favole."</t>
   </si>
   <si>
     <t>Gregorio Palamà</t>
   </si>
   <si>
     <t>gregoriopalama@gmail.com</t>
+  </si>
+  <si>
+    <t>Cloud</t>
   </si>
   <si>
     <t>Italian, English</t>
@@ -354,6 +312,9 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>English, Italian</t>
   </si>
   <si>
     <t>Aula magna</t>
@@ -462,10 +423,10 @@
     <t>https://bendingspoons.com</t>
   </si>
   <si>
+    <t>https://www.instagram.com/daquinoaldo</t>
+  </si>
+  <si>
     <t>https://ald.ooo</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/daquinoaldo</t>
   </si>
   <si>
     <t>https://sessionize.com/image/4acb-400o400o1-DU2DZ13khW6ubM81x3Gc8Y.jpg</t>
@@ -505,49 +466,70 @@
     <t>https://sessionize.com/image/7189-400o400o1-Kbr9Q1iH4aCfXku4Q8oQyQ.jpg</t>
   </si>
   <si>
-    <t>Enhancing Python &amp; Django development with AI: a Pair Programming approach</t>
-  </si>
-  <si>
-    <t>In this talk we will explore how different AI tools can revolutionize development (in Python with Django in this specific case) through an advanced agile pair programming approach. We will demonstrate the importance of effective prompt engineering and how AI assistants can act as programming support, speeding up the development process and improving code quality. An analysis of quantifiable benefits, such as time savings, will conclude the presentation, providing concrete insight into the potential of this technology in modern software development.</t>
-  </si>
-  <si>
-    <t>Maurizio Argoneto</t>
-  </si>
-  <si>
-    <t>maurizio.argoneto@pignolalug.it</t>
+    <t>Storybook: l' Atomic Design oltre il wormhole 🌪️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progettare interfacce utilizzando componenti modulari e riutilizzabili non è sempre facile e intuitivo. 🤯_x000D_
+Con Storybook, il viaggio nell'Atomic Design entra in una nuova dimensione, permettendoci di oltrepassare il wormhole del caos._x000D_
+In questo talk, esploreremo come Storybook permetta di realizzare, adattare e documentare ogni singolo componente, offrendoci uno spazio dinamico per sviluppare e testare i componenti in modo isolato. Scopriremo come Storybook migliori la collaborazione tra le diverse parti del team, integrandosi anche con tool di progettazione e prototipazione grafica come Figma. Join with us! 🚀 </t>
+  </si>
+  <si>
+    <t>Valentina Giuffre' Coco</t>
+  </si>
+  <si>
+    <t>giuffre.valentina.21@gmail.com</t>
   </si>
   <si>
     <t>Web</t>
   </si>
   <si>
-    <t>ITALY</t>
-  </si>
-  <si>
-    <t>bff9ee3e-05a4-4a8b-8dfc-5ca19092add2</t>
-  </si>
-  <si>
-    <t>Maurizio</t>
-  </si>
-  <si>
-    <t>Argoneto</t>
-  </si>
-  <si>
-    <t>DevOps Culture, IT Project Manager (Scrum Master | Senior Software Engineer)</t>
-  </si>
-  <si>
-    <t>Maurizio Argoneto is the CTO of Publisys Spa, with extensive experience as a programmer specializing in Java and Python, having encountered Django along his professional journey. He is also the co-founder of Come To Code, the largest IT event in Southern Italy, and the Lead of GDG Basilicata, where he actively contributes to the growth and support of the local tech community.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/argomauro/</t>
-  </si>
-  <si>
-    <t>https://www.pignolalug.it/</t>
-  </si>
-  <si>
-    <t>https://twitter.com/argomauro</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/eecb-400o400o1-9TSA7R52yaPFRuccdyuVsz.png</t>
+    <t>26ccbcbd-1d78-471c-b98e-fa7854526c2a</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Giuffre' Coco</t>
+  </si>
+  <si>
+    <t>Full Stack Developer presso TD Group Italia S.r.l.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laureata in matematica presso l'Università di Pisa._x000D_
+Sviluppo di applicazioni a microservizi in Java, GoLang e utilizzo di typescript, HTML, CSS per applicazioni web front-end con particolare attenzione alla progettazione grafica.</t>
+  </si>
+  <si>
+    <t>https://it.linkedin.com/in/valentina-giuffr%C3%A8-coco-972467209</t>
+  </si>
+  <si>
+    <t>https://www.tdgroupitalia.it/</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/2909-400o400o1-SLTUqYTrM6P2DUHrK6mxRW.jpg</t>
+  </si>
+  <si>
+    <t>bbab3352-b233-4074-9e07-f8df51b61644</t>
+  </si>
+  <si>
+    <t>Paolo</t>
+  </si>
+  <si>
+    <t>Botti</t>
+  </si>
+  <si>
+    <t>p.botti@tdnet.it</t>
+  </si>
+  <si>
+    <t>TD Group Italia srl, Chief Technologist &amp; Cloud Architect</t>
+  </si>
+  <si>
+    <t>Strong professional skilled in Microservices Architecture and Event Driven Architecture (EDA) with Docker, Rest services, Golang, Angular, Vue, React MongoDB &amp; relational databases, Quarkus, Spring family products and Apache Kafka for asynchronous communication. Container orchestration with Docker Swarm and Kubernetes.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/paolo-botti-1478732b/</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/1303-400o400o1-7SYBqdqNVNXPrFPKuWm3hb.jpg</t>
   </si>
   <si>
     <t>Introduzione al Quantum Computing</t>
@@ -563,6 +545,9 @@
     <t>jgiak92@gmail.com</t>
   </si>
   <si>
+    <t>Short (20min)</t>
+  </si>
+  <si>
     <t>a4b0383e-705e-4e23-9929-338c8e7783b0</t>
   </si>
   <si>
@@ -591,186 +576,39 @@
     <t>https://sessionize.com/image/c824-400o400o1-Eko5euAb8unqWwq3q2n7df.jpg</t>
   </si>
   <si>
-    <t>Pixel and Particles: Generative Art meets Quantum Computing</t>
-  </si>
-  <si>
-    <t>Since the 60s, computers have been used to create art in what is known as "Generative Art". In this talk we will be exploring how an emerging technology such as quantum computing can be applied to generative art and we will "play" with the randomness.</t>
-  </si>
-  <si>
-    <t>Juna Salviati</t>
-  </si>
-  <si>
-    <t>juna.salviati@gmail.com</t>
-  </si>
-  <si>
-    <t>baa96c7b-6106-4cb5-8d88-124af5027adc</t>
-  </si>
-  <si>
-    <t>Juna</t>
-  </si>
-  <si>
-    <t>Salviati</t>
-  </si>
-  <si>
-    <t>GDG Roma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juna has always been curious about technology and when she discovered BASIC on C64, she decided to be a programmer._x000D_
-What started just as a passion, quickly began a continuous formation path and a career in IT: she spends her time experimenting and in tech communities.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/junasalviati/</t>
-  </si>
-  <si>
-    <t>https://twitter.com/1littleendian</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/d27b-400o400o1-sG9mTZDhiS1TGbJS1sPyCs.png</t>
-  </si>
-  <si>
-    <t>WordPress come Headless CMS: Sfruttarlo al Meglio con Angular</t>
-  </si>
-  <si>
-    <t>WordPress è il CMS più utilizzato al mondo, ma il suo approccio tradizionale può avere limiti in termini di performance e flessibilità. In questo talk, esploreremo come trasformarlo in un CMS headless, utilizzandolo solo come backend e integrandolo con un frontend moderno in Angular. Analizzeremo i vantaggi di questa architettura, come migliorare la scalabilità, ottimizzare le prestazioni e rendere il sito più dinamico e reattivo. Vedremo anche best practice, strumenti e casi d’uso reali per adottare al meglio questo approccio.</t>
-  </si>
-  <si>
-    <t>Chiara Aiola</t>
-  </si>
-  <si>
-    <t>aiola@netseven.it</t>
-  </si>
-  <si>
-    <t>b4ba51b6-abb9-435d-8b1e-35aa3469f736</t>
-  </si>
-  <si>
-    <t>Chiara</t>
-  </si>
-  <si>
-    <t>Aiola</t>
-  </si>
-  <si>
-    <t>organizer @WordPress Meetup Pisa, PM @Net7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiara Aiola, laureata in Informatica Umanistica a Pisa, lavora nel  mondo del web dal 2010. Full stack developer, negli anni si è specializzata nello sviluppo di soluzioni tecnologiche per il settore delle Digital Humanities e nella gestione dei progetti di questo ambito disciplinare. Dal 2024 è co-organizer del WordPress Meetup Pisa, che con un incontro al mese riunisce tutti gli appassionati del CMS WordPress e non solo.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/chiaraaiola/</t>
-  </si>
-  <si>
-    <t>https://www.netseven.it/</t>
-  </si>
-  <si>
-    <t>https://wppisa.it/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/wpmeetuppisa/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/wppisa</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/4ef8-400o400o1-nmvBYGcT8wJPMGV6Wm8xZ8.jpg</t>
-  </si>
-  <si>
-    <t>Il ruolo della Gen-AI nella data science geospaziale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le analisi geospaziali ormai godono di una storia ultra-decennale. La comunità dei data scientist che opera in questo settore ha attraversato tutte le rivoluzioni degli ultimi anni: dagli stravolgimenti dell'open-source al cambiamento dei paradigmi dei big-data, machine learning e blockchain. Anche la Gen-AI sta portando nuovi stravolgimenti sul fronte della geo-spatial data science._x000D_
-Ripercorreremo in questo talk i passaggi storici e le nuove frontiere dei sistemi per analizzare dati provenienti da vari settori come Earth Observation, Remote Sensing e UAV.</t>
-  </si>
-  <si>
-    <t>Gianfranco Di Pietro</t>
-  </si>
-  <si>
-    <t>gianfrancodipietro@gmail.com</t>
-  </si>
-  <si>
-    <t>b2327cae-e253-4feb-8e14-241af6350778</t>
-  </si>
-  <si>
-    <t>Gianfranco</t>
-  </si>
-  <si>
-    <t>Di Pietro</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>Geospatial expert, data scientist - PhD student.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/gianfrancodipietro/</t>
-  </si>
-  <si>
-    <t>https://medium.com/@gianfrancodipietro</t>
-  </si>
-  <si>
-    <t>https://instagram.com/gianfrancodp</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/gianfrancodipietro</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/243e-400o400o1-SEXw6y3rBzC2NHuNvJg9h5.jpg</t>
-  </si>
-  <si>
-    <t>A journey through the making of a new mobile app feature: from the idea to the customer</t>
-  </si>
-  <si>
-    <t>In this presentation, we will go through the several steps needed to get from the initial design vision to the final mobile product on the market, using a feature we added recently as case study. We will look at the various challenges to be faced, such as platform-specific UI/UX guidelines, accessibility and consistent branding UI elements. Finally, we will provide an overview of the processes and technologies used to refine the design and ensure the quality of our products.</t>
-  </si>
-  <si>
-    <t>Donatella Pasquale</t>
-  </si>
-  <si>
-    <t>donatella.pasquale@garmin.com</t>
-  </si>
-  <si>
-    <t>6b8ff0d1-1f43-49ee-9406-a3bd8605e2d2</t>
-  </si>
-  <si>
-    <t>Donatella</t>
-  </si>
-  <si>
-    <t>Pasquale</t>
-  </si>
-  <si>
-    <t>Mobile app developer @ Garmin Italy Technologies SRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a computer engineering graduate, I pursued further studies to earn a Master's degree in Bioinformatics and Digital Health Engineering, blending my passion for technology with healthcare.  I currently work as a mobile developer, with a focus on Android software development.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/donatellapasquale/</t>
-  </si>
-  <si>
-    <t>https://www.garmin.com</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/0bbd-400o400o1-wWcJNXkLZz1G4J5PEET2A5.jpg</t>
-  </si>
-  <si>
-    <t>1f0a3264-44fb-4172-872e-38ba37f065ae</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>Matteoni</t>
-  </si>
-  <si>
-    <t>federico.matteoni@garmin.com</t>
-  </si>
-  <si>
-    <t>Passionate about IT since I was a kid, I begun programming in middle school and focused on mobile apps during high school. Graduated in Computer Science in 2021 and currently studying Artificial Intelligence at University of Pisa.</t>
-  </si>
-  <si>
-    <t>https://fexed.github.io</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/6fc1-400o400o1-sK69MAhT69msc2yEvsHQyU.jpg</t>
+    <t>What happens to your privacy when data are moved on cloud?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowadays we heard often people that talk about privacy. Services, platform and so on explicitly specify what they can do with your data but what if you want not to allow them to read it?_x000D_
+_x000D_
+This talk will give a different overview about privacy by considering the case where we want to store data on an external server (such as Amazon, Azure, etc,) but allowing it to learn nothing about the data itself. We will also see pro and cons of the solutions that can be used to achieve this kind of privacy.</t>
+  </si>
+  <si>
+    <t>Mariagiovanna Rotundo</t>
+  </si>
+  <si>
+    <t>mariagiovannarotundo@gmail.com</t>
+  </si>
+  <si>
+    <t>f8ffd44d-f336-4c8c-baf7-b3ec73cfff60</t>
+  </si>
+  <si>
+    <t>Mariagiovanna</t>
+  </si>
+  <si>
+    <t>Rotundo</t>
+  </si>
+  <si>
+    <t>Ph.D. student @ University of Pisa | Lead @ GDG and WTM Pisa | WTM Ambassador</t>
+  </si>
+  <si>
+    <t>Hi! I'm a Ph.D. student at the computer science department of the University of Pisa.</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com/in/mariagiovanna-rotundo</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/84da-400o400o1-9jdSCP3HYz2Lhjebns4pXr.jpg</t>
   </si>
   <si>
     <t>Overlay and Arazzo: From API Definitions to API Experiences</t>
@@ -810,6 +648,188 @@
   </si>
   <si>
     <t>https://sessionize.com/image/5e01-400o400o1-HBow7T84TNQfXGPspLeXJQ.jpg</t>
+  </si>
+  <si>
+    <t>WordPress come Headless CMS: Sfruttarlo al Meglio con Angular</t>
+  </si>
+  <si>
+    <t>WordPress è il CMS più utilizzato al mondo, ma il suo approccio tradizionale può avere limiti in termini di performance e flessibilità. In questo talk, esploreremo come trasformarlo in un CMS headless, utilizzandolo solo come backend e integrandolo con un frontend moderno in Angular. Analizzeremo i vantaggi di questa architettura, come migliorare la scalabilità, ottimizzare le prestazioni e rendere il sito più dinamico e reattivo. Vedremo anche best practice, strumenti e casi d’uso reali per adottare al meglio questo approccio.</t>
+  </si>
+  <si>
+    <t>Chiara Aiola</t>
+  </si>
+  <si>
+    <t>aiola@netseven.it</t>
+  </si>
+  <si>
+    <t>b4ba51b6-abb9-435d-8b1e-35aa3469f736</t>
+  </si>
+  <si>
+    <t>Chiara</t>
+  </si>
+  <si>
+    <t>Aiola</t>
+  </si>
+  <si>
+    <t>organizer @WordPress Meetup Pisa, PM @Net7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiara Aiola, laureata in Informatica Umanistica a Pisa, lavora nel  mondo del web dal 2010. Full stack developer, negli anni si è specializzata nello sviluppo di soluzioni tecnologiche per il settore delle Digital Humanities e nella gestione dei progetti di questo ambito disciplinare. Dal 2024 è co-organizer del WordPress Meetup Pisa, che con un incontro al mese riunisce tutti gli appassionati del CMS WordPress e non solo.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chiaraaiola/</t>
+  </si>
+  <si>
+    <t>https://www.netseven.it/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wpmeetuppisa/</t>
+  </si>
+  <si>
+    <t>https://wppisa.it/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/wppisa</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/4ef8-400o400o1-nmvBYGcT8wJPMGV6Wm8xZ8.jpg</t>
+  </si>
+  <si>
+    <t>Pixel and Particles: Generative Art meets Quantum Computing</t>
+  </si>
+  <si>
+    <t>Since the 60s, computers have been used to create art in what is known as "Generative Art". In this talk we will be exploring how an emerging technology such as quantum computing can be applied to generative art and we will "play" with the randomness.</t>
+  </si>
+  <si>
+    <t>Juna Salviati</t>
+  </si>
+  <si>
+    <t>juna.salviati@gmail.com</t>
+  </si>
+  <si>
+    <t>baa96c7b-6106-4cb5-8d88-124af5027adc</t>
+  </si>
+  <si>
+    <t>Juna</t>
+  </si>
+  <si>
+    <t>Salviati</t>
+  </si>
+  <si>
+    <t>GDG Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juna has always been curious about technology and when she discovered BASIC on C64, she decided to be a programmer._x000D_
+What started just as a passion, quickly began a continuous formation path and a career in IT: she spends her time experimenting and in tech communities.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/junasalviati/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/1littleendian</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/d27b-400o400o1-sG9mTZDhiS1TGbJS1sPyCs.png</t>
+  </si>
+  <si>
+    <t>Il ruolo della Gen-AI nella data science geospaziale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le analisi geospaziali ormai godono di una storia ultra-decennale. La comunità dei data scientist che opera in questo settore ha attraversato tutte le rivoluzioni degli ultimi anni: dagli stravolgimenti dell'open-source al cambiamento dei paradigmi dei big-data, machine learning e blockchain. Anche la Gen-AI sta portando nuovi stravolgimenti sul fronte della geo-spatial data science._x000D_
+Ripercorreremo in questo talk i passaggi storici e le nuove frontiere dei sistemi per analizzare dati provenienti da vari settori come Earth Observation, Remote Sensing e UAV.</t>
+  </si>
+  <si>
+    <t>Gianfranco Di Pietro</t>
+  </si>
+  <si>
+    <t>gianfrancodipietro@gmail.com</t>
+  </si>
+  <si>
+    <t>b2327cae-e253-4feb-8e14-241af6350778</t>
+  </si>
+  <si>
+    <t>Gianfranco</t>
+  </si>
+  <si>
+    <t>Di Pietro</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Geospatial expert, data scientist - PhD student.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gianfrancodipietro/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/gianfrancodp</t>
+  </si>
+  <si>
+    <t>https://medium.com/@gianfrancodipietro</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gianfrancodipietro</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/243e-400o400o1-SEXw6y3rBzC2NHuNvJg9h5.jpg</t>
+  </si>
+  <si>
+    <t>A journey through the making of a new mobile app feature: from the idea to the customer</t>
+  </si>
+  <si>
+    <t>In this presentation, we will go through the several steps needed to get from the initial design vision to the final mobile product on the market, using a feature we added recently as case study. We will look at the various challenges to be faced, such as platform-specific UI/UX guidelines, accessibility and consistent branding UI elements. Finally, we will provide an overview of the processes and technologies used to refine the design and ensure the quality of our products.</t>
+  </si>
+  <si>
+    <t>Donatella Pasquale</t>
+  </si>
+  <si>
+    <t>donatella.pasquale@garmin.com</t>
+  </si>
+  <si>
+    <t>6b8ff0d1-1f43-49ee-9406-a3bd8605e2d2</t>
+  </si>
+  <si>
+    <t>Donatella</t>
+  </si>
+  <si>
+    <t>Pasquale</t>
+  </si>
+  <si>
+    <t>Mobile app developer @ Garmin Italy Technologies SRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a computer engineering graduate, I pursued further studies to earn a Master's degree in Bioinformatics and Digital Health Engineering, blending my passion for technology with healthcare.  I currently work as a mobile developer, with a focus on Android software development.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/donatellapasquale/</t>
+  </si>
+  <si>
+    <t>https://www.garmin.com</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/0bbd-400o400o1-wWcJNXkLZz1G4J5PEET2A5.jpg</t>
+  </si>
+  <si>
+    <t>1f0a3264-44fb-4172-872e-38ba37f065ae</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Matteoni</t>
+  </si>
+  <si>
+    <t>federico.matteoni@garmin.com</t>
+  </si>
+  <si>
+    <t>Passionate about IT since I was a kid, I begun programming in middle school and focused on mobile apps during high school. Graduated in Computer Science in 2021 and currently studying Artificial Intelligence at University of Pisa.</t>
+  </si>
+  <si>
+    <t>https://fexed.github.io</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/6fc1-400o400o1-sK69MAhT69msc2yEvsHQyU.jpg</t>
   </si>
   <si>
     <t>Problemi NP-hard e come affrontarli</t>
@@ -925,6 +945,44 @@
     <t>https://sessionize.com/image/a021-400o400o1-NHxRkLwr1nesLVTWMiJPk6.jpg</t>
   </si>
   <si>
+    <t>How to give your first Talk without freaking out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public speaking can be intimidating: where do we start from? How to find the right topic? How to put together a nice presentation? Will the audience ask me questions? In this talk I will provide first hand tips I learned the hard way on how to go from zero to give your first public talk with confidence._x000D_
+</t>
+  </si>
+  <si>
+    <t>Federico Paolinelli</t>
+  </si>
+  <si>
+    <t>fedepaol@gmail.com</t>
+  </si>
+  <si>
+    <t>d26a7c22-25fc-466d-89ff-c0a77c93f820</t>
+  </si>
+  <si>
+    <t>Paolinelli</t>
+  </si>
+  <si>
+    <t>Senior Principal Software Engineer at Red Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico works remotely for Red Hat, contributing to network features of the OpenShift container platform. He contributed to a variety of networking and kubernetes related projects, and lately he has been maintaining and leading the MetalLB project, the Kubernetes load balancer implementation for bare metal. Beyond that, he is an active opensource supporter with contributions to various projects, Firefox for Android and Athens, the go dependency proxy among the others._x000D_
+</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/federico-paolinelli-2374954/</t>
+  </si>
+  <si>
+    <t>https://www.redhat.com/en</t>
+  </si>
+  <si>
+    <t>https://fedepaol.github.io</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/a673-400o400o1-B9m7Lyvuur4WGBGx9ffBfh.jpg</t>
+  </si>
+  <si>
     <t>Beats in the Browser - Coding Music with JavaScript</t>
   </si>
   <si>
@@ -963,79 +1021,16 @@
     <t>https://rowdy.codes</t>
   </si>
   <si>
+    <t>https://www.instagram.com/rowdyrabouw/</t>
+  </si>
+  <si>
     <t>https://x.com/rowdyrabouw</t>
   </si>
   <si>
-    <t>https://www.instagram.com/rowdyrabouw/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/rowdy.rabouw</t>
   </si>
   <si>
     <t>https://sessionize.com/image/f9f1-400o400o1-D2bhLFiYGsMVJw83XxRDvH.jpg</t>
-  </si>
-  <si>
-    <t>Storybook: l' Atomic Design oltre il wormhole 🌪️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progettare interfacce utilizzando componenti modulari e riutilizzabili non è sempre facile e intuitivo. 🤯_x000D_
-Con Storybook, il viaggio nell'Atomic Design entra in una nuova dimensione, permettendoci di oltrepassare il wormhole del caos._x000D_
-In questo talk, esploreremo come Storybook permetta di realizzare, adattare e documentare ogni singolo componente, offrendoci uno spazio dinamico per sviluppare e testare i componenti in modo isolato. Scopriremo come Storybook migliori la collaborazione tra le diverse parti del team, integrandosi anche con tool di progettazione e prototipazione grafica come Figma. Join with us! 🚀 </t>
-  </si>
-  <si>
-    <t>Valentina Giuffre' Coco</t>
-  </si>
-  <si>
-    <t>giuffre.valentina.21@gmail.com</t>
-  </si>
-  <si>
-    <t>26ccbcbd-1d78-471c-b98e-fa7854526c2a</t>
-  </si>
-  <si>
-    <t>Valentina</t>
-  </si>
-  <si>
-    <t>Giuffre' Coco</t>
-  </si>
-  <si>
-    <t>Full Stack Developer presso TD Group Italia S.r.l.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laureata in matematica presso l'Università di Pisa._x000D_
-Sviluppo di applicazioni a microservizi in Java, GoLang e utilizzo di typescript, HTML, CSS per applicazioni web front-end con particolare attenzione alla progettazione grafica.</t>
-  </si>
-  <si>
-    <t>https://it.linkedin.com/in/valentina-giuffr%C3%A8-coco-972467209</t>
-  </si>
-  <si>
-    <t>https://www.tdgroupitalia.it/</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/2909-400o400o1-SLTUqYTrM6P2DUHrK6mxRW.jpg</t>
-  </si>
-  <si>
-    <t>bbab3352-b233-4074-9e07-f8df51b61644</t>
-  </si>
-  <si>
-    <t>Paolo</t>
-  </si>
-  <si>
-    <t>Botti</t>
-  </si>
-  <si>
-    <t>p.botti@tdnet.it</t>
-  </si>
-  <si>
-    <t>TD Group Italia srl, Chief Technologist &amp; Cloud Architect</t>
-  </si>
-  <si>
-    <t>Strong professional skilled in Microservices Architecture and Event Driven Architecture (EDA) with Docker, Rest services, Golang, Angular, Vue, React MongoDB &amp; relational databases, Quarkus, Spring family products and Apache Kafka for asynchronous communication. Container orchestration with Docker Swarm and Kubernetes.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/paolo-botti-1478732b/</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/1303-400o400o1-7SYBqdqNVNXPrFPKuWm3hb.jpg</t>
   </si>
   <si>
     <t>Sailing the Waters using UI/UX Reinforced by Security</t>
@@ -1152,10 +1147,10 @@
     <t>https://www.linkedin.com/in/daniele-mario-areddu-67729b260?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
+    <t>https://www.instagram.com/danieleareddu_/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/daniele-mario-areddu/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/danieleareddu_/</t>
   </si>
   <si>
     <t>https://sessionize.com/image/dbf1-400o400o1-aaRDe7ZDxqPn86foBoaeL9.jpg</t>
@@ -1363,13 +1358,13 @@
     <t>https://worldline.com</t>
   </si>
   <si>
+    <t>https://www.instagram.com/yostane</t>
+  </si>
+  <si>
     <t>https://twitter.com/yostane</t>
   </si>
   <si>
     <t>https://blog.worldline.tech/author/yassine-benabbas.html</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/yostane</t>
   </si>
   <si>
     <t>https://sessionize.com/image/9970-400o400o1-7CmB7T896vC8ReojjcyMUE.jpg</t>
@@ -1524,44 +1519,6 @@
     <t>https://sessionize.com/image/2c35-400o400o1-0b-3fb7-450d-ab71-08c9dd81a48a.14d46ff0-032b-4678-8d21-f712d4a97457.jpeg</t>
   </si>
   <si>
-    <t>How to give your first Talk without freaking out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public speaking can be intimidating: where do we start from? How to find the right topic? How to put together a nice presentation? Will the audience ask me questions? In this talk I will provide first hand tips I learned the hard way on how to go from zero to give your first public talk with confidence._x000D_
-</t>
-  </si>
-  <si>
-    <t>Federico Paolinelli</t>
-  </si>
-  <si>
-    <t>fedepaol@gmail.com</t>
-  </si>
-  <si>
-    <t>d26a7c22-25fc-466d-89ff-c0a77c93f820</t>
-  </si>
-  <si>
-    <t>Paolinelli</t>
-  </si>
-  <si>
-    <t>Senior Principal Software Engineer at Red Hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federico works remotely for Red Hat, contributing to network features of the OpenShift container platform. He contributed to a variety of networking and kubernetes related projects, and lately he has been maintaining and leading the MetalLB project, the Kubernetes load balancer implementation for bare metal. Beyond that, he is an active opensource supporter with contributions to various projects, Firefox for Android and Athens, the go dependency proxy among the others._x000D_
-</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/federico-paolinelli-2374954/</t>
-  </si>
-  <si>
-    <t>https://www.redhat.com/en</t>
-  </si>
-  <si>
-    <t>https://fedepaol.github.io</t>
-  </si>
-  <si>
-    <t>https://sessionize.com/image/a673-400o400o1-B9m7Lyvuur4WGBGx9ffBfh.jpg</t>
-  </si>
-  <si>
     <t>Make your model think with GRPO (even if you are GPU poor)</t>
   </si>
   <si>
@@ -1633,6 +1590,45 @@
   </si>
   <si>
     <t>https://sessionize.com/image/dc98-400o400o1-PXz1mfjD7RYp2jjRRiGyQD.png</t>
+  </si>
+  <si>
+    <t>The Courage to Be Different: Rewriting the STEM Narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In "The Courage to Be Different: Rewriting the STEM Narrative," Carmen will share her personal journey through the world of STEM, particularly engineering, from the early struggles of challenges, failed exams, and long study days to graduating and conducting research aimed at improving people's lives and changing the world. She will highlight the importance of embracing individuality and challenging conventional ideas and misconceptions about who belongs in STEM. Through her story, she hopes to inspire others to break free from limiting narratives and courageously carve their own path in STEM, proving that diversity of thought and experience is the key to unlocking innovation. By expanding our understanding of who can contribute to STEM, we can reshape the field and become role models for future generations. </t>
+  </si>
+  <si>
+    <t>Carmen Panepinto Zayati</t>
+  </si>
+  <si>
+    <t>carmenpanepintozayati@gmail.com</t>
+  </si>
+  <si>
+    <t>04f80ad2-8117-4df5-9695-f19d0ebd9c25</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Panepinto Zayati</t>
+  </si>
+  <si>
+    <t>Research Assistant @BioRobotics Institute (Sant’Anna); M.Sc Bionics Engineering and B.Sc Electronics Engineering; STEM advocate and speaker; Miss Universe Italy 2023</t>
+  </si>
+  <si>
+    <t>STEM activist, researcher, and communicator. Currently a research assistant @BioRobotics Institute, Sant’Anna, she holds a Master’s in Bionics Engineering and a Bachelor's in Electronics Engineering. She is a speaker and science communicator to challenge STEM stereotypes and bridge the gap between science and society. She teaches STEM courses in schools, as testimonial of law n.187. She is the STEM ambassador for Samsung Italy, and Miss Universe Italy 2023.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/carmen-panepinto-zayati/?originalSubdomain=it</t>
+  </si>
+  <si>
+    <t>https://www.santannapisa.it/en/institute/biorobotics</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/carmenpanepinto/</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/4949-400o400o1-Xq3Eif2mDnyJTUxGcU5cMx.jpg</t>
   </si>
   <si>
     <t>AI’s Hidden Cost: The Environmental Impact of Machine Learning</t>
@@ -1855,7 +1851,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>854505</v>
+        <v>850062</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>32</v>
@@ -1890,85 +1886,94 @@
       <c r="L2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>41</v>
+      <c r="M2" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45720.697022025459</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="P2" s="5">
+        <v>45759.416666666664</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>50</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="0" t="s">
         <v>35</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>850062</v>
+        <v>860330</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N3" s="5">
-        <v>45720.697022025459</v>
+        <v>45715.323366666664</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" s="5">
         <v>45759.416666666664</v>
@@ -1977,78 +1982,87 @@
         <v>50</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>860330</v>
+        <v>862668</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="M4" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N4" s="5">
-        <v>45715.323366666664</v>
+        <v>45730.456549537033</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P4" s="5">
         <v>45759.416666666664</v>
@@ -2057,63 +2071,54 @@
         <v>50</v>
       </c>
       <c r="T4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="U4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="X4" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>862668</v>
+        <v>862926</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>38</v>
@@ -2122,22 +2127,22 @@
         <v>39</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="M5" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N5" s="5">
-        <v>45730.456549537033</v>
+        <v>45714.860351701383</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P5" s="5">
         <v>45759.416666666664</v>
@@ -2146,54 +2151,54 @@
         <v>50</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>862926</v>
+        <v>797393</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>38</v>
@@ -2202,25 +2207,25 @@
         <v>39</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M6" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N6" s="5">
-        <v>45714.860351701383</v>
+        <v>45714.416337303242</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P6" s="5">
-        <v>45759.416666666664</v>
+        <v>45759.451388888891</v>
       </c>
       <c r="Q6" s="0">
         <v>50</v>
@@ -2235,7 +2240,7 @@
         <v>109</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X6" s="0" t="s">
         <v>110</v>
@@ -2246,34 +2251,31 @@
       <c r="Z6" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="AD6" s="0" t="s">
+      <c r="AF6" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AF6" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>797393</v>
+        <v>821974</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>38</v>
@@ -2288,16 +2290,16 @@
         <v>41</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M7" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N7" s="5">
-        <v>45714.416337303242</v>
+        <v>45714.488690428239</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P7" s="5">
         <v>45759.451388888891</v>
@@ -2306,51 +2308,60 @@
         <v>50</v>
       </c>
       <c r="T7" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="U7" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="W7" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="W7" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="X7" s="0" t="s">
+      <c r="Y7" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="Z7" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="Z7" s="0" t="s">
+      <c r="AA7" s="0" t="s">
         <v>124</v>
       </c>
+      <c r="AB7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>126</v>
+      </c>
       <c r="AF7" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>821974</v>
+        <v>838947</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>38</v>
@@ -2359,22 +2370,22 @@
         <v>39</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M8" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N8" s="5">
-        <v>45714.488690428239</v>
+        <v>45714.437480636574</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="P8" s="5">
         <v>45759.451388888891</v>
@@ -2383,84 +2394,72 @@
         <v>50</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="U8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="W8" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="V8" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="X8" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z8" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA8" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC8" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AD8" s="0" t="s">
+      <c r="AF8" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="AF8" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>838947</v>
+        <v>862301</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>144</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M9" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N9" s="5">
-        <v>45714.437480636574</v>
+        <v>45714.446214780088</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="P9" s="5">
         <v>45759.451388888891</v>
@@ -2469,72 +2468,57 @@
         <v>50</v>
       </c>
       <c r="T9" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="W9" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="X9" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="W9" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="X9" s="0" t="s">
+      <c r="Y9" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="Z9" s="0" t="s">
         <v>149</v>
       </c>
+      <c r="AA9" s="0" t="s">
+        <v>150</v>
+      </c>
       <c r="AF9" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>839030</v>
+        <v>862301</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="M10" s="5">
-        <v>45728.765490243051</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>41</v>
+        <v>45714.409613923606</v>
+      </c>
+      <c r="N10" s="5">
+        <v>45714.446214780088</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P10" s="5">
         <v>45759.451388888891</v>
@@ -2543,34 +2527,31 @@
         <v>50</v>
       </c>
       <c r="T10" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y10" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="Z10" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="AA10" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF10" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y10" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z10" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA10" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB10" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF10" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11">
@@ -2578,22 +2559,22 @@
         <v>796625</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>38</v>
@@ -2602,13 +2583,13 @@
         <v>39</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M11" s="5">
         <v>45714.409613923606</v>
@@ -2617,7 +2598,7 @@
         <v>45714.444721261571</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P11" s="5">
         <v>45759.486111111109</v>
@@ -2626,57 +2607,57 @@
         <v>30</v>
       </c>
       <c r="T11" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z11" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="AA11" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="AB11" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="W11" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="X11" s="0" t="s">
+      <c r="AF11" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="Y11" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z11" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA11" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD11" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF11" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>824924</v>
+        <v>854505</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>38</v>
@@ -2685,22 +2666,22 @@
         <v>39</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="N12" s="5">
-        <v>45715.407090312496</v>
+        <v>59</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P12" s="5">
         <v>45759.486111111109</v>
@@ -2709,78 +2690,75 @@
         <v>30</v>
       </c>
       <c r="T12" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z12" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="AF12" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y12" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z12" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB12" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF12" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>883240</v>
+        <v>860892</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="M13" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="N13" s="5">
+        <v>45714.545749652774</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="5">
         <v>45759.486111111109</v>
@@ -2789,173 +2767,167 @@
         <v>30</v>
       </c>
       <c r="T13" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD13" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="AF13" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="X13" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y13" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z13" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA13" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC13" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD13" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE13" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF13" s="0" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>859518</v>
+        <v>883240</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="N14" s="5">
-        <v>45714.440862071759</v>
+        <v>78</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P14" s="5">
-        <v>45759.506944444445</v>
+        <v>45759.486111111109</v>
       </c>
       <c r="Q14" s="0">
         <v>30</v>
       </c>
       <c r="T14" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE14" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="AF14" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y14" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z14" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC14" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD14" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE14" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF14" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>859594</v>
+        <v>824924</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M15" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N15" s="5">
-        <v>45714.5267258449</v>
+        <v>45715.407090312496</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P15" s="5">
         <v>45759.506944444445</v>
@@ -2964,57 +2936,78 @@
         <v>30</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="W15" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF15" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y15" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z15" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA15" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF15" s="0" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>859594</v>
+        <v>859518</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>38</v>
+      <c r="I16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="M16" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N16" s="5">
-        <v>45714.5267258449</v>
+        <v>45714.440862071759</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="P16" s="5">
         <v>45759.506944444445</v>
@@ -3023,78 +3016,84 @@
         <v>30</v>
       </c>
       <c r="T16" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y16" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="Z16" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="V16" s="0" t="s">
+      <c r="AB16" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="W16" s="0" t="s">
+      <c r="AD16" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="X16" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y16" s="0" t="s">
+      <c r="AE16" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="AA16" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC16" s="0" t="s">
+      <c r="AF16" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="AF16" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>860892</v>
+        <v>859594</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>242</v>
-      </c>
       <c r="F17" s="0" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M17" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N17" s="5">
-        <v>45714.545749652774</v>
+        <v>45714.5267258449</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="P17" s="5">
         <v>45759.506944444445</v>
@@ -3103,78 +3102,57 @@
         <v>30</v>
       </c>
       <c r="T17" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="U17" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="V17" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="W17" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="X17" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="W17" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="X17" s="0" t="s">
+      <c r="Y17" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="Y17" s="0" t="s">
+      <c r="Z17" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="Z17" s="0" t="s">
+      <c r="AA17" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="AC17" s="0" t="s">
+      <c r="AF17" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="AF17" s="0" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>884731</v>
+        <v>859594</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>41</v>
+      <c r="M18" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="N18" s="5">
+        <v>45714.5267258449</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P18" s="5">
         <v>45759.506944444445</v>
@@ -3183,108 +3161,105 @@
         <v>30</v>
       </c>
       <c r="T18" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD18" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="AF18" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y18" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF18" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>822693</v>
+        <v>884731</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="N19" s="5">
-        <v>45715.34785543981</v>
+        <v>59</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P19" s="5">
-        <v>45759.583333333328</v>
+        <v>45759.506944444445</v>
       </c>
       <c r="Q19" s="0">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T19" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y19" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="AF19" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="V19" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y19" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z19" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC19" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD19" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF19" s="0" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="20">
@@ -3292,16 +3267,37 @@
         <v>822693</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>38</v>
+      <c r="I20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="M20" s="5">
         <v>45714.409613923606</v>
@@ -3310,7 +3306,7 @@
         <v>45715.34785543981</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P20" s="5">
         <v>45759.583333333328</v>
@@ -3319,78 +3315,60 @@
         <v>50</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>93</v>
+        <v>271</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>99</v>
+        <v>277</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>276</v>
       </c>
       <c r="AF20" s="0" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>846889</v>
+        <v>822693</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="M21" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N21" s="5">
-        <v>45714.435481863424</v>
+        <v>45715.34785543981</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="P21" s="5">
         <v>45759.583333333328</v>
@@ -3399,84 +3377,78 @@
         <v>50</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA21" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB21" s="0" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>285</v>
+        <v>86</v>
       </c>
       <c r="AF21" s="0" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>857916</v>
+        <v>846889</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>291</v>
+        <v>59</v>
       </c>
       <c r="M22" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N22" s="5">
-        <v>45714.4301599537</v>
+        <v>45714.435481863424</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="P22" s="5">
         <v>45759.583333333328</v>
@@ -3485,90 +3457,84 @@
         <v>50</v>
       </c>
       <c r="T22" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF22" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="U22" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y22" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z22" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA22" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB22" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC22" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD22" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE22" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF22" s="0" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>862301</v>
+        <v>857773</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M23" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N23" s="5">
-        <v>45714.446214780088</v>
+        <v>45714.595782326389</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P23" s="5">
         <v>45759.583333333328</v>
@@ -3577,57 +3543,81 @@
         <v>50</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>313</v>
+        <v>302</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>303</v>
       </c>
       <c r="AF23" s="0" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>862301</v>
+        <v>857916</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>38</v>
+      <c r="I24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>309</v>
       </c>
       <c r="M24" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="N24" s="5">
-        <v>45714.446214780088</v>
+        <v>45714.4301599537</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="P24" s="5">
         <v>45759.583333333328</v>
@@ -3636,31 +3626,43 @@
         <v>50</v>
       </c>
       <c r="T24" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z24" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="U24" s="0" t="s">
+      <c r="AA24" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="V24" s="0" t="s">
+      <c r="AB24" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="W24" s="0" t="s">
+      <c r="AC24" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="X24" s="0" t="s">
+      <c r="AD24" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE24" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="Y24" s="0" t="s">
+      <c r="AF24" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="Z24" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA24" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF24" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="25">
@@ -3668,22 +3670,22 @@
         <v>837938</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>326</v>
-      </c>
       <c r="F25" s="0" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>38</v>
@@ -3692,13 +3694,13 @@
         <v>39</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M25" s="5">
         <v>45714.409613923606</v>
@@ -3707,7 +3709,7 @@
         <v>45714.433191932869</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P25" s="5">
         <v>45759.618055555555</v>
@@ -3716,28 +3718,28 @@
         <v>50</v>
       </c>
       <c r="T25" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="V25" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="U25" s="0" t="s">
+      <c r="W25" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="X25" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="V25" s="0" t="s">
+      <c r="Y25" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="W25" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="X25" s="0" t="s">
+      <c r="Z25" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="Y25" s="0" t="s">
+      <c r="AF25" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="Z25" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="AF25" s="0" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="26">
@@ -3745,22 +3747,22 @@
         <v>843163</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="E26" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>338</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>38</v>
@@ -3769,13 +3771,13 @@
         <v>39</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M26" s="5">
         <v>45714.409613923606</v>
@@ -3784,7 +3786,7 @@
         <v>45714.551208599536</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P26" s="5">
         <v>45759.618055555555</v>
@@ -3793,28 +3795,28 @@
         <v>50</v>
       </c>
       <c r="T26" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="V26" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="U26" s="0" t="s">
+      <c r="W26" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="X26" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="V26" s="0" t="s">
+      <c r="Y26" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="W26" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="X26" s="0" t="s">
+      <c r="Z26" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="Y26" s="0" t="s">
+      <c r="AF26" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="Z26" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF26" s="0" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="27">
@@ -3822,37 +3824,37 @@
         <v>853115</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>349</v>
-      </c>
       <c r="F27" s="0" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M27" s="5">
         <v>45714.409613923606</v>
@@ -3861,7 +3863,7 @@
         <v>45714.418413229163</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P27" s="5">
         <v>45759.618055555555</v>
@@ -3870,37 +3872,37 @@
         <v>50</v>
       </c>
       <c r="T27" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="V27" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="U27" s="0" t="s">
+      <c r="W27" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="X27" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="V27" s="0" t="s">
+      <c r="Y27" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="W27" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="X27" s="0" t="s">
+      <c r="Z27" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="Y27" s="0" t="s">
+      <c r="AA27" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="Z27" s="0" t="s">
+      <c r="AB27" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="AA27" s="0" t="s">
+      <c r="AD27" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="AC27" s="0" t="s">
+      <c r="AF27" s="0" t="s">
         <v>358</v>
-      </c>
-      <c r="AD27" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF27" s="0" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="28">
@@ -3908,37 +3910,37 @@
         <v>863474</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>364</v>
-      </c>
       <c r="F28" s="0" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M28" s="5">
         <v>45714.409613923606</v>
@@ -3947,7 +3949,7 @@
         <v>45714.481459178241</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="P28" s="5">
         <v>45759.618055555555</v>
@@ -3956,31 +3958,31 @@
         <v>50</v>
       </c>
       <c r="T28" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="V28" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="U28" s="0" t="s">
+      <c r="W28" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="X28" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="V28" s="0" t="s">
+      <c r="Y28" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="W28" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="X28" s="0" t="s">
+      <c r="Z28" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="Y28" s="0" t="s">
+      <c r="AA28" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="Z28" s="0" t="s">
+      <c r="AF28" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="AA28" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF28" s="0" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="29">
@@ -3988,22 +3990,22 @@
         <v>813458</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="E29" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>377</v>
-      </c>
       <c r="F29" s="0" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>38</v>
@@ -4012,13 +4014,13 @@
         <v>39</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M29" s="5">
         <v>45714.409613923606</v>
@@ -4027,7 +4029,7 @@
         <v>45714.436776504626</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P29" s="5">
         <v>45759.652777777774</v>
@@ -4036,28 +4038,28 @@
         <v>25</v>
       </c>
       <c r="T29" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="V29" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="U29" s="0" t="s">
+      <c r="W29" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="X29" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="V29" s="0" t="s">
+      <c r="Y29" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="W29" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="X29" s="0" t="s">
+      <c r="Z29" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="Y29" s="0" t="s">
+      <c r="AF29" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="Z29" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF29" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="30">
@@ -4065,37 +4067,37 @@
         <v>849512</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="E30" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>388</v>
-      </c>
       <c r="F30" s="0" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M30" s="5">
         <v>45714.409613923606</v>
@@ -4104,7 +4106,7 @@
         <v>45714.431661076385</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="P30" s="5">
         <v>45759.652777777774</v>
@@ -4113,31 +4115,31 @@
         <v>50</v>
       </c>
       <c r="T30" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="V30" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="U30" s="0" t="s">
+      <c r="W30" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="X30" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="V30" s="0" t="s">
+      <c r="Y30" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="W30" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="X30" s="0" t="s">
+      <c r="Z30" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="Y30" s="0" t="s">
+      <c r="AA30" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="Z30" s="0" t="s">
+      <c r="AF30" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="AA30" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="AF30" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="31">
@@ -4145,22 +4147,22 @@
         <v>863339</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>400</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>38</v>
@@ -4169,13 +4171,13 @@
         <v>39</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M31" s="5">
         <v>45714.409613923606</v>
@@ -4184,7 +4186,7 @@
         <v>45716.368220023149</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P31" s="5">
         <v>45759.652777777774</v>
@@ -4193,34 +4195,34 @@
         <v>25</v>
       </c>
       <c r="T31" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="V31" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="U31" s="0" t="s">
+      <c r="W31" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="X31" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="V31" s="0" t="s">
+      <c r="Y31" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="W31" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="X31" s="0" t="s">
+      <c r="Z31" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="Y31" s="0" t="s">
+      <c r="AA31" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="Z31" s="0" t="s">
+      <c r="AB31" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="AA31" s="0" t="s">
+      <c r="AF31" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="AD31" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="AF31" s="0" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="32">
@@ -4228,37 +4230,37 @@
         <v>863806</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>413</v>
-      </c>
       <c r="F32" s="0" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M32" s="5">
         <v>45714.409613923606</v>
@@ -4267,7 +4269,7 @@
         <v>45714.463723611108</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P32" s="5">
         <v>45759.652777777774</v>
@@ -4276,40 +4278,40 @@
         <v>50</v>
       </c>
       <c r="T32" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="V32" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="W32" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="X32" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="V32" s="0" t="s">
+      <c r="Y32" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="W32" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="X32" s="0" t="s">
+      <c r="Z32" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="Y32" s="0" t="s">
+      <c r="AA32" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="Z32" s="0" t="s">
+      <c r="AB32" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="AA32" s="0" t="s">
+      <c r="AC32" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="AB32" s="0" t="s">
+      <c r="AD32" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="AC32" s="0" t="s">
+      <c r="AF32" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="AD32" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF32" s="0" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="33">
@@ -4317,22 +4319,22 @@
         <v>862602</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="E33" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>429</v>
-      </c>
       <c r="F33" s="0" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>38</v>
@@ -4341,13 +4343,13 @@
         <v>39</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M33" s="5">
         <v>45714.409613923606</v>
@@ -4356,7 +4358,7 @@
         <v>45714.425511076384</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P33" s="5">
         <v>45759.670138888891</v>
@@ -4365,34 +4367,34 @@
         <v>25</v>
       </c>
       <c r="T33" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="V33" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="U33" s="0" t="s">
+      <c r="W33" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="X33" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="V33" s="0" t="s">
+      <c r="Y33" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="W33" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="X33" s="0" t="s">
+      <c r="Z33" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="Y33" s="0" t="s">
+      <c r="AA33" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="Z33" s="0" t="s">
+      <c r="AB33" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="AA33" s="0" t="s">
+      <c r="AF33" s="0" t="s">
         <v>436</v>
-      </c>
-      <c r="AD33" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="AF33" s="0" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="34">
@@ -4400,22 +4402,22 @@
         <v>885792</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="E34" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>442</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>38</v>
@@ -4424,13 +4426,13 @@
         <v>39</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>41</v>
@@ -4439,7 +4441,7 @@
         <v>41</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P34" s="5">
         <v>45759.670138888891</v>
@@ -4448,28 +4450,28 @@
         <v>25</v>
       </c>
       <c r="T34" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="V34" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="U34" s="0" t="s">
+      <c r="W34" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="X34" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="V34" s="0" t="s">
+      <c r="Y34" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="W34" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="X34" s="0" t="s">
+      <c r="Z34" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="Y34" s="0" t="s">
+      <c r="AF34" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="Z34" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="AF34" s="0" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="35">
@@ -4477,22 +4479,22 @@
         <v>857452</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="E35" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>453</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>38</v>
@@ -4501,13 +4503,13 @@
         <v>39</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M35" s="5">
         <v>45695.507444594907</v>
@@ -4516,7 +4518,7 @@
         <v>45695.538855474537</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P35" s="5">
         <v>45759.708333333328</v>
@@ -4525,84 +4527,84 @@
         <v>50</v>
       </c>
       <c r="T35" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="V35" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="U35" s="0" t="s">
+      <c r="W35" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="X35" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="V35" s="0" t="s">
+      <c r="Y35" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="W35" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="X35" s="0" t="s">
+      <c r="Z35" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="Y35" s="0" t="s">
+      <c r="AA35" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="Z35" s="0" t="s">
+      <c r="AC35" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="AA35" s="0" t="s">
+      <c r="AD35" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="AB35" s="0" t="s">
+      <c r="AF35" s="0" t="s">
         <v>462</v>
-      </c>
-      <c r="AC35" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF35" s="0" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>857773</v>
+        <v>861129</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>468</v>
-      </c>
       <c r="F36" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="K36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M36" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="N36" s="5">
-        <v>45714.595782326389</v>
+      <c r="N36" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P36" s="5">
         <v>45759.708333333328</v>
@@ -4611,81 +4613,66 @@
         <v>50</v>
       </c>
       <c r="T36" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="V36" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="U36" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="V36" s="0" t="s">
+      <c r="W36" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="AF36" s="0" t="s">
         <v>470</v>
-      </c>
-      <c r="W36" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="X36" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="Y36" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="Z36" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA36" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="AC36" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="AF36" s="0" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>861129</v>
+        <v>864118</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>40</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N37" s="0" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="M37" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="N37" s="5">
+        <v>45714.806715277773</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P37" s="5">
         <v>45759.708333333328</v>
@@ -4694,42 +4681,57 @@
         <v>50</v>
       </c>
       <c r="T37" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="V37" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="X37" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y37" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z37" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA37" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="U37" s="0" t="s">
+      <c r="AE37" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="V37" s="0" t="s">
+      <c r="AF37" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="W37" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="AF37" s="0" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>864118</v>
+        <v>893277</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="E38" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>488</v>
-      </c>
       <c r="F38" s="0" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>38</v>
@@ -4738,58 +4740,58 @@
         <v>39</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="N38" s="5">
-        <v>45714.806715277773</v>
+        <v>59</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="P38" s="5">
-        <v>45759.708333333328</v>
+        <v>45759.725694444445</v>
       </c>
       <c r="Q38" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T38" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="U38" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="U38" s="0" t="s">
+      <c r="V38" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="V38" s="0" t="s">
+      <c r="W38" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="X38" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="W38" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="X38" s="0" t="s">
+      <c r="Y38" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="Y38" s="0" t="s">
+      <c r="Z38" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="Z38" s="0" t="s">
+      <c r="AA38" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="AA38" s="0" t="s">
+      <c r="AB38" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="AE38" s="0" t="s">
+      <c r="AF38" s="0" t="s">
         <v>496</v>
-      </c>
-      <c r="AF38" s="0" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="39">
@@ -4797,22 +4799,22 @@
         <v>826068</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="E39" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>501</v>
-      </c>
       <c r="F39" s="0" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>38</v>
@@ -4821,13 +4823,13 @@
         <v>39</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M39" s="5">
         <v>45714.409613923606</v>
@@ -4836,7 +4838,7 @@
         <v>45714.422330590278</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P39" s="5">
         <v>45759.743055555555</v>
@@ -4845,31 +4847,31 @@
         <v>50</v>
       </c>
       <c r="T39" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="V39" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="U39" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="V39" s="0" t="s">
+      <c r="W39" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="X39" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="W39" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="X39" s="0" t="s">
+      <c r="Y39" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="Y39" s="0" t="s">
+      <c r="Z39" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="Z39" s="0" t="s">
+      <c r="AD39" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="AC39" s="0" t="s">
+      <c r="AF39" s="0" t="s">
         <v>507</v>
-      </c>
-      <c r="AF39" s="0" t="s">
-        <v>508</v>
       </c>
     </row>
   </sheetData>
